--- a/inst/extdata/ERD_UG_Example_2_v10.xlsx
+++ b/inst/extdata/ERD_UG_Example_2_v10.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\Sevilla\Test_Rtransposer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Entity" sheetId="1" r:id="rId1"/>
-    <sheet name="Relationship" sheetId="2" r:id="rId2"/>
+    <sheet name="Entity" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Relationship" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,63 +21,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="82">
   <si>
     <t xml:space="preserve">TableName </t>
   </si>
   <si>
-    <t>EntityType</t>
+    <t xml:space="preserve">EntityType</t>
   </si>
   <si>
     <t xml:space="preserve">EntityID </t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ValueExpression</t>
-  </si>
-  <si>
-    <t>RowFilter</t>
-  </si>
-  <si>
-    <t>DateExpression</t>
-  </si>
-  <si>
-    <t>DateType</t>
-  </si>
-  <si>
-    <t>DateEstimationType</t>
-  </si>
-  <si>
-    <t>Output</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValueExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RowFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateEstimationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output</t>
   </si>
   <si>
     <t xml:space="preserve">DateMissingType </t>
   </si>
   <si>
-    <t>marriages_input</t>
-  </si>
-  <si>
-    <t>INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>hid</t>
-  </si>
-  <si>
-    <t>Marriages</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>hfirst</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t xml:space="preserve">marriages_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <r>
@@ -91,7 +87,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>date2ymd(</t>
+      <t xml:space="preserve">date2ymd(</t>
     </r>
     <r>
       <rPr>
@@ -101,7 +97,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>marriage</t>
+      <t xml:space="preserve">marriage</t>
     </r>
     <r>
       <rPr>
@@ -110,80 +106,80 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <t>Declared</t>
-  </si>
-  <si>
-    <t>Exact</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>hlast</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>"Male"</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Time_Invariant</t>
-  </si>
-  <si>
-    <t>OCCUPATION</t>
-  </si>
-  <si>
-    <t>hocc</t>
-  </si>
-  <si>
-    <t>MARRIAGE_DATE</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>MARRIAGE_LOCATION</t>
-  </si>
-  <si>
-    <t>MunicipalityName2Code(marrloc)</t>
-  </si>
-  <si>
-    <t>Value_Id_C</t>
-  </si>
-  <si>
-    <t>wid</t>
-  </si>
-  <si>
-    <t>wfirst</t>
-  </si>
-  <si>
-    <t>wlast</t>
-  </si>
-  <si>
-    <t>"Female"</t>
-  </si>
-  <si>
-    <t>wocc</t>
-  </si>
-  <si>
-    <t>deaths_input</t>
-  </si>
-  <si>
-    <t>idi</t>
-  </si>
-  <si>
-    <t>Deaths</t>
-  </si>
-  <si>
-    <t>fname</t>
+    <t xml:space="preserve">Declared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Male"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_Invariant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCCUPATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hocc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARRIAGE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARRIAGE_LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MunicipalityName2Code(marrloc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value_Id_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wfirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Female"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wocc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fname</t>
   </si>
   <si>
     <r>
@@ -193,7 +189,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>date2ymd(</t>
+      <t xml:space="preserve">date2ymd(</t>
     </r>
     <r>
       <rPr>
@@ -203,7 +199,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>death</t>
+      <t xml:space="preserve">death</t>
     </r>
     <r>
       <rPr>
@@ -212,29 +208,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>DEATH_DATE</t>
-  </si>
-  <si>
-    <t>DEATH_LOCATION</t>
-  </si>
-  <si>
-    <t>MunicipalityName2Code(deathloc)</t>
-  </si>
-  <si>
-    <t>births_input</t>
-  </si>
-  <si>
-    <t>kidid</t>
-  </si>
-  <si>
-    <t>Births</t>
+    <t xml:space="preserve">lname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEATH_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEATH_LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MunicipalityName2Code(deathloc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">births_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kidid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births</t>
   </si>
   <si>
     <r>
@@ -244,7 +240,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>date2ymd(</t>
+      <t xml:space="preserve">date2ymd(</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +250,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>birth</t>
+      <t xml:space="preserve">birth</t>
     </r>
     <r>
       <rPr>
@@ -263,111 +259,105 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <t>BIRTH_DATE</t>
-  </si>
-  <si>
-    <t>BIRTH_LOCATION</t>
-  </si>
-  <si>
-    <t>MunicipalityName2Code(birthloc)</t>
-  </si>
-  <si>
-    <t>places_input</t>
-  </si>
-  <si>
-    <t>CONTEXT</t>
-  </si>
-  <si>
-    <t>placeid</t>
-  </si>
-  <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>RelationshipType</t>
-  </si>
-  <si>
-    <t>FromEntityID</t>
-  </si>
-  <si>
-    <t>ToEntityID</t>
-  </si>
-  <si>
-    <t>VariableName</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>INDIV_INDIV</t>
-  </si>
-  <si>
-    <t>"Husband"</t>
-  </si>
-  <si>
-    <t>"Wife"</t>
-  </si>
-  <si>
-    <t>dadid</t>
-  </si>
-  <si>
-    <t>"Father"</t>
-  </si>
-  <si>
-    <t>!is.na(dadid)</t>
-  </si>
-  <si>
-    <t>"Child"</t>
-  </si>
-  <si>
-    <t>momid</t>
-  </si>
-  <si>
-    <t>"Mother"</t>
-  </si>
-  <si>
-    <t>!is.na(momid)</t>
-  </si>
-  <si>
-    <t>CONTEXT_CONTEXT</t>
-  </si>
-  <si>
-    <t>nested</t>
-  </si>
-  <si>
-    <t>relvar</t>
-  </si>
-  <si>
-    <t>INDIV_CONTEXT</t>
-  </si>
-  <si>
-    <t>!is.na(nested)</t>
+    <t xml:space="preserve">BIRTH_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRTH_LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MunicipalityName2Code(birthloc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">places_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placeid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelationshipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FromEntityID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToEntityID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIV_INDIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Husband"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Wife"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!is.na(dadid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dadid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Father"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Child"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!is.na(momid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mother"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!is.na(nested)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTEXT_CONTEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIV_CONTEXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -376,12 +366,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,6 +400,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -408,15 +414,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -460,14 +474,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -483,70 +497,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="17">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -605,315 +663,41 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
-    <col min="13" max="1023" width="11.5703125" style="2"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -961,7 +745,7 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -983,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -993,7 +777,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1015,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +809,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1037,7 +821,7 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="4"/>
@@ -1045,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +839,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1077,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,7 +871,7 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1106,7 +890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,13 +900,13 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1137,11 +921,11 @@
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +935,7 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1173,7 +957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +967,7 @@
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1205,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +999,7 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1227,7 +1011,7 @@
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="4"/>
@@ -1235,7 +1019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1029,7 @@
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1267,7 +1051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1061,7 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1296,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1306,13 +1090,13 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1327,11 +1111,11 @@
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1341,7 +1125,7 @@
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1363,7 +1147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +1157,7 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1395,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1189,7 @@
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1424,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1434,13 +1218,13 @@
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1455,11 +1239,11 @@
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1469,7 +1253,7 @@
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1491,7 +1275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1285,7 @@
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1523,7 +1307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1533,7 +1317,7 @@
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1552,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1562,13 +1346,13 @@
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1583,11 +1367,11 @@
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1607,14 +1391,14 @@
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1628,13 +1412,13 @@
       <c r="E23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -1642,9 +1426,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
@@ -1652,484 +1437,444 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="1025" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:19" ht="15">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="15">
+      <c r="I2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" ht="15">
+      <c r="I3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="1" t="s">
+      <c r="G4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="15">
+      <c r="I4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
+      <c r="I5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="1" t="s">
+      <c r="G6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15">
+      <c r="I6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="1" t="s">
+      <c r="G7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="I7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="1" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15">
+      <c r="I9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="1" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="I10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="I11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>83</v>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="1" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
